--- a/GBDS JANUARY FILES 2026/INVENTORY COUNT SHEET 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/INVENTORY COUNT SHEET 2026.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D5C621-6E56-4244-86A0-B5A4D448802B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F37D237-2EEA-4C3B-A02B-B17FC1B16EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D34C963E-9680-4B45-A4EE-B681FF0CEC08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D34C963E-9680-4B45-A4EE-B681FF0CEC08}"/>
   </bookViews>
   <sheets>
     <sheet name="COUNT SHEET" sheetId="9" r:id="rId1"/>
     <sheet name="COUNT SHEET VERT" sheetId="10" r:id="rId2"/>
+    <sheet name="COUNT SHEET VERT (2)" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COUNT SHEET'!$A$1:$AM$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'COUNT SHEET VERT'!$A$1:$Q$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'COUNT SHEET VERT'!$A$1:$Q$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'COUNT SHEET VERT (2)'!$A$1:$Q$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="71">
   <si>
     <t>ROUTE 1</t>
   </si>
@@ -2998,7 +3000,7 @@
   </sheetPr>
   <dimension ref="A1:AV74"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A23" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4787,7 +4789,1875 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="14" scale="64" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="14" scale="66" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="18" max="80" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC2DD76-19AA-4478-81E4-7402F406C272}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AV74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="76" customWidth="1"/>
+    <col min="3" max="7" width="10" style="57" customWidth="1"/>
+    <col min="8" max="8" width="11" style="57" customWidth="1"/>
+    <col min="9" max="9" width="10" style="57" customWidth="1"/>
+    <col min="10" max="10" width="1.42578125" style="57" customWidth="1"/>
+    <col min="11" max="12" width="10" style="57" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.42578125" style="57" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="57" customWidth="1"/>
+    <col min="16" max="43" width="7.28515625" style="57" customWidth="1"/>
+    <col min="44" max="44" width="1.5703125" style="57" customWidth="1"/>
+    <col min="45" max="45" width="9.42578125" style="57" customWidth="1"/>
+    <col min="46" max="46" width="1.28515625" style="57" customWidth="1"/>
+    <col min="47" max="47" width="12.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.140625" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B2" s="76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:48" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
+      <c r="K4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="57"/>
+      <c r="O4" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="59"/>
+    </row>
+    <row r="5" spans="1:48" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="87"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="89"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="90"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="59"/>
+      <c r="AS5" s="59"/>
+      <c r="AT5" s="59"/>
+      <c r="AU5" s="59"/>
+      <c r="AV5" s="59"/>
+    </row>
+    <row r="6" spans="1:48" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="87"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="89"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="90"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="59"/>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="59"/>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="59"/>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="59"/>
+      <c r="AS6" s="59"/>
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="59"/>
+      <c r="AV6" s="59"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
+        <v>1</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="48">
+        <v>27</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="69"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="69"/>
+      <c r="O7" s="91"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="60"/>
+      <c r="AP7" s="60"/>
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="60"/>
+      <c r="AU7" s="60"/>
+      <c r="AV7" s="60"/>
+    </row>
+    <row r="8" spans="1:48" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="75">
+        <f>A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="95">
+        <f>35+63</f>
+        <v>98</v>
+      </c>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="104"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="60"/>
+      <c r="AL8" s="60"/>
+      <c r="AM8" s="60"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="60"/>
+      <c r="AP8" s="60"/>
+      <c r="AQ8" s="60"/>
+      <c r="AR8" s="60"/>
+      <c r="AS8" s="60"/>
+      <c r="AT8" s="60"/>
+      <c r="AU8" s="60"/>
+      <c r="AV8" s="60"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A9" s="75">
+        <f t="shared" ref="A9:A50" si="0">A8+1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="47">
+        <v>23</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="46"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="46"/>
+      <c r="O9" s="50"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="60"/>
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="60"/>
+      <c r="AT9" s="60"/>
+      <c r="AU9" s="60"/>
+      <c r="AV9" s="60"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A10" s="75">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="47">
+        <v>6</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="46"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="46"/>
+      <c r="O10" s="50"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="60"/>
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="60"/>
+      <c r="AN10" s="60"/>
+      <c r="AO10" s="60"/>
+      <c r="AP10" s="60"/>
+      <c r="AQ10" s="60"/>
+      <c r="AR10" s="60"/>
+      <c r="AS10" s="60"/>
+      <c r="AT10" s="60"/>
+      <c r="AU10" s="60"/>
+      <c r="AV10" s="60"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A11" s="75">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="47">
+        <v>5</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="46"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="46"/>
+      <c r="O11" s="50"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="60"/>
+      <c r="AM11" s="60"/>
+      <c r="AN11" s="60"/>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="60"/>
+      <c r="AU11" s="60"/>
+      <c r="AV11" s="60"/>
+    </row>
+    <row r="12" spans="1:48" s="61" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="75">
+        <v>7</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="95">
+        <f>1944+35+1440</f>
+        <v>3419</v>
+      </c>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="60"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="60"/>
+      <c r="AK12" s="60"/>
+      <c r="AL12" s="60"/>
+      <c r="AM12" s="60"/>
+      <c r="AN12" s="60"/>
+      <c r="AO12" s="60"/>
+      <c r="AP12" s="60"/>
+      <c r="AQ12" s="60"/>
+      <c r="AR12" s="60"/>
+      <c r="AS12" s="60"/>
+      <c r="AT12" s="60"/>
+      <c r="AU12" s="60"/>
+      <c r="AV12" s="60"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A13" s="75">
+        <v>11</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="47">
+        <v>4</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="46"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="46"/>
+      <c r="O13" s="50"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="60"/>
+      <c r="AH13" s="60"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="60"/>
+      <c r="AK13" s="60"/>
+      <c r="AL13" s="60"/>
+      <c r="AM13" s="60"/>
+      <c r="AN13" s="60"/>
+      <c r="AO13" s="60"/>
+      <c r="AP13" s="60"/>
+      <c r="AQ13" s="60"/>
+      <c r="AR13" s="60"/>
+      <c r="AS13" s="60"/>
+      <c r="AT13" s="60"/>
+      <c r="AU13" s="60"/>
+      <c r="AV13" s="60"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A14" s="75">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="47">
+        <v>1</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="46"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="46"/>
+      <c r="O14" s="50"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="60"/>
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="60"/>
+      <c r="AK14" s="60"/>
+      <c r="AL14" s="60"/>
+      <c r="AM14" s="60"/>
+      <c r="AN14" s="60"/>
+      <c r="AO14" s="60"/>
+      <c r="AP14" s="60"/>
+      <c r="AQ14" s="60"/>
+      <c r="AR14" s="60"/>
+      <c r="AS14" s="60"/>
+      <c r="AT14" s="60"/>
+      <c r="AU14" s="60"/>
+      <c r="AV14" s="60"/>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A15" s="75">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="46"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="46"/>
+      <c r="O15" s="50"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="60"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="60"/>
+      <c r="AG15" s="60"/>
+      <c r="AH15" s="60"/>
+      <c r="AI15" s="60"/>
+      <c r="AJ15" s="60"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="60"/>
+      <c r="AM15" s="60"/>
+      <c r="AN15" s="60"/>
+      <c r="AO15" s="60"/>
+      <c r="AP15" s="60"/>
+      <c r="AQ15" s="60"/>
+      <c r="AR15" s="60"/>
+      <c r="AS15" s="60"/>
+      <c r="AT15" s="60"/>
+      <c r="AU15" s="60"/>
+      <c r="AV15" s="60"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A16" s="75">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="46"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="46"/>
+      <c r="O16" s="50"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="60"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="60"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="60"/>
+      <c r="AJ16" s="60"/>
+      <c r="AK16" s="60"/>
+      <c r="AL16" s="60"/>
+      <c r="AM16" s="60"/>
+      <c r="AN16" s="60"/>
+      <c r="AO16" s="60"/>
+      <c r="AP16" s="60"/>
+      <c r="AQ16" s="60"/>
+      <c r="AR16" s="60"/>
+      <c r="AS16" s="60"/>
+      <c r="AT16" s="60"/>
+      <c r="AU16" s="60"/>
+      <c r="AV16" s="60"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A17" s="75">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="47">
+        <v>3</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="46"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="46"/>
+      <c r="O17" s="50"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="60"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="60"/>
+      <c r="AJ17" s="60"/>
+      <c r="AK17" s="60"/>
+      <c r="AL17" s="60"/>
+      <c r="AM17" s="60"/>
+      <c r="AN17" s="60"/>
+      <c r="AO17" s="60"/>
+      <c r="AP17" s="60"/>
+      <c r="AQ17" s="60"/>
+      <c r="AR17" s="60"/>
+      <c r="AS17" s="60"/>
+      <c r="AT17" s="60"/>
+      <c r="AU17" s="60"/>
+      <c r="AV17" s="60"/>
+    </row>
+    <row r="18" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="75">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="46"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="46"/>
+      <c r="O18" s="50"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="60"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="60"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="60"/>
+      <c r="AJ18" s="60"/>
+      <c r="AK18" s="60"/>
+      <c r="AL18" s="60"/>
+      <c r="AM18" s="60"/>
+      <c r="AN18" s="60"/>
+      <c r="AO18" s="60"/>
+      <c r="AP18" s="60"/>
+      <c r="AQ18" s="60"/>
+      <c r="AR18" s="60"/>
+      <c r="AS18" s="60"/>
+      <c r="AT18" s="60"/>
+      <c r="AU18" s="60"/>
+      <c r="AV18" s="60"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A19" s="75">
+        <v>16</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="47">
+        <v>1</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="46"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="46"/>
+      <c r="O19" s="50"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="60"/>
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="60"/>
+      <c r="AM19" s="60"/>
+      <c r="AN19" s="60"/>
+      <c r="AO19" s="60"/>
+      <c r="AP19" s="60"/>
+      <c r="AQ19" s="60"/>
+      <c r="AR19" s="60"/>
+      <c r="AS19" s="60"/>
+      <c r="AT19" s="60"/>
+      <c r="AU19" s="60"/>
+      <c r="AV19" s="60"/>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A20" s="75">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="47">
+        <v>4</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="46"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="46"/>
+      <c r="O20" s="50"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="60"/>
+      <c r="AJ20" s="60"/>
+      <c r="AK20" s="60"/>
+      <c r="AL20" s="60"/>
+      <c r="AM20" s="60"/>
+      <c r="AN20" s="60"/>
+      <c r="AO20" s="60"/>
+      <c r="AP20" s="60"/>
+      <c r="AQ20" s="60"/>
+      <c r="AR20" s="60"/>
+      <c r="AS20" s="60"/>
+      <c r="AT20" s="60"/>
+      <c r="AU20" s="60"/>
+      <c r="AV20" s="60"/>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A21" s="75">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="47">
+        <v>2</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="46"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="46"/>
+      <c r="O21" s="50"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="60"/>
+      <c r="AI21" s="60"/>
+      <c r="AJ21" s="60"/>
+      <c r="AK21" s="60"/>
+      <c r="AL21" s="60"/>
+      <c r="AM21" s="60"/>
+      <c r="AN21" s="60"/>
+      <c r="AO21" s="60"/>
+      <c r="AP21" s="60"/>
+      <c r="AQ21" s="60"/>
+      <c r="AR21" s="60"/>
+      <c r="AS21" s="60"/>
+      <c r="AT21" s="60"/>
+      <c r="AU21" s="60"/>
+      <c r="AV21" s="60"/>
+    </row>
+    <row r="22" spans="1:48" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="75">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="47">
+        <v>2</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="60"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="60"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="60"/>
+      <c r="AI22" s="60"/>
+      <c r="AJ22" s="60"/>
+      <c r="AK22" s="60"/>
+      <c r="AL22" s="60"/>
+      <c r="AM22" s="60"/>
+      <c r="AN22" s="60"/>
+      <c r="AO22" s="60"/>
+      <c r="AP22" s="60"/>
+      <c r="AQ22" s="60"/>
+      <c r="AR22" s="60"/>
+      <c r="AS22" s="60"/>
+      <c r="AT22" s="60"/>
+      <c r="AU22" s="60"/>
+      <c r="AV22" s="60"/>
+    </row>
+    <row r="23" spans="1:48" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="75">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="47">
+        <v>63</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="60"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="60"/>
+      <c r="AG23" s="60"/>
+      <c r="AH23" s="60"/>
+      <c r="AI23" s="60"/>
+      <c r="AJ23" s="60"/>
+      <c r="AK23" s="60"/>
+      <c r="AL23" s="60"/>
+      <c r="AM23" s="60"/>
+      <c r="AN23" s="60"/>
+      <c r="AO23" s="60"/>
+      <c r="AP23" s="60"/>
+      <c r="AQ23" s="60"/>
+      <c r="AR23" s="60"/>
+      <c r="AS23" s="60"/>
+      <c r="AT23" s="60"/>
+      <c r="AU23" s="60"/>
+      <c r="AV23" s="60"/>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A24" s="75">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="47">
+        <v>4</v>
+      </c>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="46"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="46"/>
+      <c r="O24" s="50"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="60"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="60"/>
+      <c r="AJ24" s="60"/>
+      <c r="AK24" s="60"/>
+      <c r="AL24" s="60"/>
+      <c r="AM24" s="60"/>
+      <c r="AN24" s="60"/>
+      <c r="AO24" s="60"/>
+      <c r="AP24" s="60"/>
+      <c r="AQ24" s="60"/>
+      <c r="AR24" s="60"/>
+      <c r="AS24" s="60"/>
+      <c r="AT24" s="60"/>
+      <c r="AU24" s="60"/>
+      <c r="AV24" s="60"/>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A25" s="75">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="47">
+        <v>63</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="46"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="46"/>
+      <c r="O25" s="50"/>
+      <c r="AS25" s="62" t="e">
+        <f>#REF!-AS24</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="75">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="47">
+        <v>3</v>
+      </c>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+    </row>
+    <row r="27" spans="1:48" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="75">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="47">
+        <v>63</v>
+      </c>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A28" s="75">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="47">
+        <v>28</v>
+      </c>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="46"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="46"/>
+      <c r="O28" s="50"/>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A29" s="75">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="47">
+        <v>61</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="46"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="46"/>
+      <c r="O29" s="50"/>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A30" s="75">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="46"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="46"/>
+      <c r="O30" s="50"/>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A31" s="75">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="47">
+        <v>1</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="46"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="46"/>
+      <c r="O31" s="50"/>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A32" s="75">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="47">
+        <v>5</v>
+      </c>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="46"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="46"/>
+      <c r="O32" s="50"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="75">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="47">
+        <v>144</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="46"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="46"/>
+      <c r="O33" s="50"/>
+    </row>
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="75">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="46"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="46"/>
+      <c r="O34" s="50"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="75">
+        <v>31</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="46"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="46"/>
+      <c r="O35" s="50"/>
+    </row>
+    <row r="36" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="75">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="95">
+        <v>2160</v>
+      </c>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="98"/>
+      <c r="N36" s="102"/>
+      <c r="O36" s="104"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="75">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="46"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="46"/>
+      <c r="O37" s="50"/>
+    </row>
+    <row r="38" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="75">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="95">
+        <v>39</v>
+      </c>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="104"/>
+    </row>
+    <row r="39" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="75">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="100">
+        <v>768</v>
+      </c>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="106"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="101"/>
+      <c r="N39" s="105"/>
+      <c r="O39" s="107"/>
+    </row>
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="75">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="46"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="46"/>
+      <c r="O40" s="50"/>
+    </row>
+    <row r="41" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="75">
+        <v>36</v>
+      </c>
+      <c r="B41" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="97">
+        <v>4320</v>
+      </c>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="103"/>
+      <c r="L41" s="97"/>
+      <c r="M41" s="98"/>
+      <c r="N41" s="102"/>
+      <c r="O41" s="104"/>
+    </row>
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="75">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B42" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="46"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="46"/>
+      <c r="O42" s="50"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="75">
+        <v>37</v>
+      </c>
+      <c r="B43" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="46"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="46"/>
+      <c r="O43" s="50"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="75">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B44" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="47">
+        <v>3</v>
+      </c>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="46"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="46"/>
+      <c r="O44" s="50"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="75">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="47">
+        <v>64</v>
+      </c>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="46"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="46"/>
+      <c r="O45" s="50"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="75">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B46" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="46"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="46"/>
+      <c r="O46" s="50"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="75">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B47" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="46"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="46"/>
+      <c r="O47" s="50"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="75">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B48" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="46"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="46"/>
+      <c r="O48" s="50"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="75">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B49" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="47">
+        <v>15</v>
+      </c>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="46"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="46"/>
+      <c r="O49" s="50"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="75">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B50" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="46"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="46"/>
+      <c r="O50" s="50"/>
+    </row>
+    <row r="51" spans="1:15" s="63" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="49">
+        <f>SUM(C7:C50)</f>
+        <v>11399</v>
+      </c>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="54"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="51"/>
+    </row>
+    <row r="52" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="117"/>
+      <c r="O53" s="72" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="68"/>
+      <c r="O54" s="55"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="69"/>
+      <c r="O55" s="50"/>
+    </row>
+    <row r="56" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="71"/>
+      <c r="O56" s="56"/>
+    </row>
+    <row r="57" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
+      <c r="O58" s="55"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="69"/>
+      <c r="O59" s="50"/>
+    </row>
+    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="71"/>
+      <c r="O60" s="56"/>
+    </row>
+    <row r="61" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B62" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="68"/>
+      <c r="O62" s="55"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="69"/>
+      <c r="O63" s="50"/>
+    </row>
+    <row r="64" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="71"/>
+      <c r="O64" s="56"/>
+    </row>
+    <row r="65" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B66" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="68"/>
+      <c r="O66" s="55"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B67" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="69"/>
+      <c r="O67" s="50"/>
+    </row>
+    <row r="68" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="71"/>
+      <c r="O68" s="56"/>
+    </row>
+    <row r="69" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="68"/>
+      <c r="O70" s="55"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="69"/>
+      <c r="O71" s="50"/>
+    </row>
+    <row r="72" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="71"/>
+      <c r="O72" s="56"/>
+    </row>
+    <row r="73" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="66"/>
+      <c r="O74" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C53:I53"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="14" scale="70" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="18" max="80" man="1"/>
   </colBreaks>

--- a/GBDS JANUARY FILES 2026/INVENTORY COUNT SHEET 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/INVENTORY COUNT SHEET 2026.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F37D237-2EEA-4C3B-A02B-B17FC1B16EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06A3258-C128-4245-8FA0-CFC18D1E97A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D34C963E-9680-4B45-A4EE-B681FF0CEC08}"/>
   </bookViews>
   <sheets>
     <sheet name="COUNT SHEET" sheetId="9" r:id="rId1"/>
     <sheet name="COUNT SHEET VERT" sheetId="10" r:id="rId2"/>
-    <sheet name="COUNT SHEET VERT (2)" sheetId="11" r:id="rId3"/>
+    <sheet name="01,08" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'01,08'!$A$1:$V$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COUNT SHEET'!$A$1:$AM$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'COUNT SHEET VERT'!$A$1:$Q$82</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'COUNT SHEET VERT (2)'!$A$1:$Q$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="74">
   <si>
     <t>ROUTE 1</t>
   </si>
@@ -253,6 +253,15 @@
   <si>
     <t>GE320</t>
   </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>bot</t>
+  </si>
 </sst>
 </file>
 
@@ -409,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1119,6 +1128,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1126,7 +1281,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1462,6 +1617,51 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="56" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1494,6 +1694,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2759,34 +2962,34 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="1:42" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="108" t="s">
+      <c r="C21" s="124"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="109"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="108" t="s">
+      <c r="F21" s="124"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="108" t="s">
+      <c r="I21" s="124"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="109"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="108" t="s">
+      <c r="L21" s="124"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="O21" s="109"/>
-      <c r="P21" s="110"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="125"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
@@ -2809,7 +3012,7 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="1:42" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="112"/>
+      <c r="A22" s="127"/>
       <c r="B22" s="11" t="s">
         <v>44</v>
       </c>
@@ -3029,16 +3232,16 @@
       <c r="B1" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B2" s="76" t="s">
@@ -3050,15 +3253,15 @@
       <c r="B4" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="129"/>
       <c r="K4" s="82" t="s">
         <v>0</v>
       </c>
@@ -4555,15 +4758,15 @@
       <c r="B53" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="115" t="s">
+      <c r="C53" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="116"/>
-      <c r="E53" s="116"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="116"/>
-      <c r="I53" s="117"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="132"/>
       <c r="O53" s="72" t="s">
         <v>62</v>
       </c>
@@ -4801,85 +5004,106 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AV74"/>
+  <dimension ref="A1:BA74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="57" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="76" customWidth="1"/>
-    <col min="3" max="7" width="10" style="57" customWidth="1"/>
-    <col min="8" max="8" width="11" style="57" customWidth="1"/>
-    <col min="9" max="9" width="10" style="57" customWidth="1"/>
-    <col min="10" max="10" width="1.42578125" style="57" customWidth="1"/>
-    <col min="11" max="12" width="10" style="57" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.42578125" style="57" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="57" customWidth="1"/>
-    <col min="16" max="43" width="7.28515625" style="57" customWidth="1"/>
-    <col min="44" max="44" width="1.5703125" style="57" customWidth="1"/>
-    <col min="45" max="45" width="9.42578125" style="57" customWidth="1"/>
-    <col min="46" max="46" width="1.28515625" style="57" customWidth="1"/>
-    <col min="47" max="47" width="12.7109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.140625" style="57"/>
+    <col min="3" max="6" width="10" style="57" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="57" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="57" customWidth="1"/>
+    <col min="9" max="9" width="5" style="57" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="57" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.42578125" style="57" customWidth="1"/>
+    <col min="13" max="13" width="10" style="57" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="57" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" style="57" customWidth="1"/>
+    <col min="17" max="17" width="10" style="57" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="57" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="57" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" style="57" customWidth="1"/>
+    <col min="22" max="48" width="7.28515625" style="57" customWidth="1"/>
+    <col min="49" max="49" width="1.5703125" style="57" customWidth="1"/>
+    <col min="50" max="50" width="9.42578125" style="57" customWidth="1"/>
+    <col min="51" max="51" width="1.28515625" style="57" customWidth="1"/>
+    <col min="52" max="52" width="12.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="I1" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B2" s="76" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:48" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:53" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114"/>
-      <c r="K4" s="82" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="129"/>
+      <c r="M4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="84" t="s">
+      <c r="N4" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="85" t="s">
+      <c r="P4" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="57"/>
-      <c r="O4" s="86" t="s">
+      <c r="R4" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="57"/>
+      <c r="T4" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
+      <c r="U4" s="86" t="s">
+        <v>73</v>
+      </c>
       <c r="AE4" s="59"/>
       <c r="AF4" s="59"/>
       <c r="AG4" s="59"/>
@@ -4898,26 +5122,38 @@
       <c r="AT4" s="59"/>
       <c r="AU4" s="59"/>
       <c r="AV4" s="59"/>
-    </row>
-    <row r="5" spans="1:48" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="59"/>
+    </row>
+    <row r="5" spans="1:53" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="87"/>
       <c r="C5" s="92"/>
       <c r="D5" s="92"/>
       <c r="E5" s="92"/>
       <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="89"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="90"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="59"/>
+      <c r="G5" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="89"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
       <c r="AE5" s="59"/>
       <c r="AF5" s="59"/>
       <c r="AG5" s="59"/>
@@ -4936,8 +5172,13 @@
       <c r="AT5" s="59"/>
       <c r="AU5" s="59"/>
       <c r="AV5" s="59"/>
-    </row>
-    <row r="6" spans="1:48" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59"/>
+      <c r="AY5" s="59"/>
+      <c r="AZ5" s="59"/>
+      <c r="BA5" s="59"/>
+    </row>
+    <row r="6" spans="1:53" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="87"/>
       <c r="C6" s="92"/>
       <c r="D6" s="92"/>
@@ -4945,17 +5186,18 @@
       <c r="F6" s="92"/>
       <c r="G6" s="92"/>
       <c r="H6" s="92"/>
-      <c r="I6" s="89"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="90"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="89"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
       <c r="AE6" s="59"/>
       <c r="AF6" s="59"/>
       <c r="AG6" s="59"/>
@@ -4974,8 +5216,13 @@
       <c r="AT6" s="59"/>
       <c r="AU6" s="59"/>
       <c r="AV6" s="59"/>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW6" s="59"/>
+      <c r="AX6" s="59"/>
+      <c r="AY6" s="59"/>
+      <c r="AZ6" s="59"/>
+      <c r="BA6" s="59"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="75">
         <v>1</v>
       </c>
@@ -4983,23 +5230,38 @@
         <v>34</v>
       </c>
       <c r="C7" s="48">
-        <v>27</v>
+        <f>63+20</f>
+        <v>83</v>
       </c>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="F7" s="48">
+        <v>17</v>
+      </c>
+      <c r="G7" s="48">
+        <v>1</v>
+      </c>
       <c r="H7" s="48"/>
-      <c r="I7" s="69"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="69"/>
-      <c r="O7" s="91"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="60"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="69">
+        <v>6</v>
+      </c>
+      <c r="M7" s="88"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="48">
+        <v>3</v>
+      </c>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109">
+        <v>2</v>
+      </c>
+      <c r="R7" s="69"/>
+      <c r="T7" s="91">
+        <f>C7+M7+O7+Q7+1</f>
+        <v>89</v>
+      </c>
+      <c r="U7" s="91"/>
       <c r="AE7" s="60"/>
       <c r="AF7" s="60"/>
       <c r="AG7" s="60"/>
@@ -5018,8 +5280,13 @@
       <c r="AT7" s="60"/>
       <c r="AU7" s="60"/>
       <c r="AV7" s="60"/>
-    </row>
-    <row r="8" spans="1:48" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AW7" s="60"/>
+      <c r="AX7" s="60"/>
+      <c r="AY7" s="60"/>
+      <c r="AZ7" s="60"/>
+      <c r="BA7" s="60"/>
+    </row>
+    <row r="8" spans="1:53" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="75">
         <f>A7+1</f>
         <v>2</v>
@@ -5028,26 +5295,27 @@
         <v>37</v>
       </c>
       <c r="C8" s="95">
-        <f>35+63</f>
-        <v>98</v>
+        <f>126+16</f>
+        <v>142</v>
       </c>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
       <c r="G8" s="95"/>
       <c r="H8" s="95"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="104"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="60"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
       <c r="AE8" s="60"/>
       <c r="AF8" s="60"/>
       <c r="AG8" s="60"/>
@@ -5066,8 +5334,13 @@
       <c r="AT8" s="60"/>
       <c r="AU8" s="60"/>
       <c r="AV8" s="60"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW8" s="60"/>
+      <c r="AX8" s="60"/>
+      <c r="AY8" s="60"/>
+      <c r="AZ8" s="60"/>
+      <c r="BA8" s="60"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
         <f t="shared" ref="A9:A50" si="0">A8+1</f>
         <v>3</v>
@@ -5075,24 +5348,23 @@
       <c r="B9" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="47">
-        <v>23</v>
-      </c>
+      <c r="C9" s="47"/>
       <c r="D9" s="47"/>
       <c r="E9" s="47"/>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
       <c r="H9" s="47"/>
-      <c r="I9" s="46"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="46"/>
-      <c r="O9" s="50"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="46"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="46"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
       <c r="AE9" s="60"/>
       <c r="AF9" s="60"/>
       <c r="AG9" s="60"/>
@@ -5111,8 +5383,13 @@
       <c r="AT9" s="60"/>
       <c r="AU9" s="60"/>
       <c r="AV9" s="60"/>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW9" s="60"/>
+      <c r="AX9" s="60"/>
+      <c r="AY9" s="60"/>
+      <c r="AZ9" s="60"/>
+      <c r="BA9" s="60"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5121,23 +5398,28 @@
         <v>38</v>
       </c>
       <c r="C10" s="47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
       <c r="H10" s="47"/>
-      <c r="I10" s="46"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="46"/>
-      <c r="O10" s="50"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="46"/>
+      <c r="M10" s="52">
+        <v>3</v>
+      </c>
+      <c r="N10" s="121"/>
+      <c r="O10" s="47">
+        <v>2</v>
+      </c>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="46"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
       <c r="AE10" s="60"/>
       <c r="AF10" s="60"/>
       <c r="AG10" s="60"/>
@@ -5156,8 +5438,13 @@
       <c r="AT10" s="60"/>
       <c r="AU10" s="60"/>
       <c r="AV10" s="60"/>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW10" s="60"/>
+      <c r="AX10" s="60"/>
+      <c r="AY10" s="60"/>
+      <c r="AZ10" s="60"/>
+      <c r="BA10" s="60"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5166,23 +5453,24 @@
         <v>36</v>
       </c>
       <c r="C11" s="47">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="47"/>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
-      <c r="I11" s="46"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="46"/>
-      <c r="O11" s="50"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="60"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="46"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="46"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
       <c r="AE11" s="60"/>
       <c r="AF11" s="60"/>
       <c r="AG11" s="60"/>
@@ -5201,8 +5489,13 @@
       <c r="AT11" s="60"/>
       <c r="AU11" s="60"/>
       <c r="AV11" s="60"/>
-    </row>
-    <row r="12" spans="1:48" s="61" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AW11" s="60"/>
+      <c r="AX11" s="60"/>
+      <c r="AY11" s="60"/>
+      <c r="AZ11" s="60"/>
+      <c r="BA11" s="60"/>
+    </row>
+    <row r="12" spans="1:53" s="61" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="75">
         <v>7</v>
       </c>
@@ -5210,36 +5503,46 @@
         <v>32</v>
       </c>
       <c r="C12" s="95">
-        <f>1944+35+1440</f>
-        <v>3419</v>
+        <f>37+1800+1152+864</f>
+        <v>3853</v>
       </c>
       <c r="D12" s="95"/>
       <c r="E12" s="95"/>
       <c r="F12" s="95"/>
       <c r="G12" s="95"/>
       <c r="H12" s="95"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="103">
+        <v>20</v>
+      </c>
+      <c r="N12" s="120"/>
+      <c r="O12" s="97">
+        <v>8</v>
+      </c>
+      <c r="P12" s="113">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="113">
+        <v>21</v>
+      </c>
+      <c r="R12" s="98">
+        <v>4</v>
+      </c>
+      <c r="S12" s="102"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
       <c r="V12" s="57"/>
       <c r="W12" s="57"/>
       <c r="X12" s="57"/>
       <c r="Y12" s="57"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
       <c r="AE12" s="60"/>
       <c r="AF12" s="60"/>
       <c r="AG12" s="60"/>
@@ -5258,8 +5561,13 @@
       <c r="AT12" s="60"/>
       <c r="AU12" s="60"/>
       <c r="AV12" s="60"/>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW12" s="60"/>
+      <c r="AX12" s="60"/>
+      <c r="AY12" s="60"/>
+      <c r="AZ12" s="60"/>
+      <c r="BA12" s="60"/>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="75">
         <v>11</v>
       </c>
@@ -5267,23 +5575,24 @@
         <v>1</v>
       </c>
       <c r="C13" s="47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
       <c r="G13" s="47"/>
       <c r="H13" s="47"/>
-      <c r="I13" s="46"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="46"/>
-      <c r="O13" s="50"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="60"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="46"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="46"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
       <c r="AE13" s="60"/>
       <c r="AF13" s="60"/>
       <c r="AG13" s="60"/>
@@ -5302,8 +5611,13 @@
       <c r="AT13" s="60"/>
       <c r="AU13" s="60"/>
       <c r="AV13" s="60"/>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW13" s="60"/>
+      <c r="AX13" s="60"/>
+      <c r="AY13" s="60"/>
+      <c r="AZ13" s="60"/>
+      <c r="BA13" s="60"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="75">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5319,16 +5633,17 @@
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
       <c r="H14" s="47"/>
-      <c r="I14" s="46"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="46"/>
-      <c r="O14" s="50"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="60"/>
-      <c r="AD14" s="60"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="46"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="46"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
       <c r="AE14" s="60"/>
       <c r="AF14" s="60"/>
       <c r="AG14" s="60"/>
@@ -5347,8 +5662,13 @@
       <c r="AT14" s="60"/>
       <c r="AU14" s="60"/>
       <c r="AV14" s="60"/>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW14" s="60"/>
+      <c r="AX14" s="60"/>
+      <c r="AY14" s="60"/>
+      <c r="AZ14" s="60"/>
+      <c r="BA14" s="60"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="75">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5356,22 +5676,25 @@
       <c r="B15" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="47"/>
+      <c r="C15" s="47">
+        <v>1</v>
+      </c>
       <c r="D15" s="47"/>
       <c r="E15" s="47"/>
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
-      <c r="I15" s="46"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="46"/>
-      <c r="O15" s="50"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="60"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="46"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="46"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
       <c r="AE15" s="60"/>
       <c r="AF15" s="60"/>
       <c r="AG15" s="60"/>
@@ -5390,8 +5713,13 @@
       <c r="AT15" s="60"/>
       <c r="AU15" s="60"/>
       <c r="AV15" s="60"/>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW15" s="60"/>
+      <c r="AX15" s="60"/>
+      <c r="AY15" s="60"/>
+      <c r="AZ15" s="60"/>
+      <c r="BA15" s="60"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="75">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5405,16 +5733,17 @@
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
       <c r="H16" s="47"/>
-      <c r="I16" s="46"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="46"/>
-      <c r="O16" s="50"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="60"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="46"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="46"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
       <c r="AE16" s="60"/>
       <c r="AF16" s="60"/>
       <c r="AG16" s="60"/>
@@ -5433,8 +5762,13 @@
       <c r="AT16" s="60"/>
       <c r="AU16" s="60"/>
       <c r="AV16" s="60"/>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW16" s="60"/>
+      <c r="AX16" s="60"/>
+      <c r="AY16" s="60"/>
+      <c r="AZ16" s="60"/>
+      <c r="BA16" s="60"/>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" s="75">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5443,23 +5777,24 @@
         <v>5</v>
       </c>
       <c r="C17" s="47">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17" s="47"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
-      <c r="I17" s="46"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="46"/>
-      <c r="O17" s="50"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="60"/>
-      <c r="AD17" s="60"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="46"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="46"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
       <c r="AE17" s="60"/>
       <c r="AF17" s="60"/>
       <c r="AG17" s="60"/>
@@ -5478,8 +5813,13 @@
       <c r="AT17" s="60"/>
       <c r="AU17" s="60"/>
       <c r="AV17" s="60"/>
-    </row>
-    <row r="18" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AW17" s="60"/>
+      <c r="AX17" s="60"/>
+      <c r="AY17" s="60"/>
+      <c r="AZ17" s="60"/>
+      <c r="BA17" s="60"/>
+    </row>
+    <row r="18" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="75">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5493,16 +5833,17 @@
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
       <c r="H18" s="47"/>
-      <c r="I18" s="46"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="46"/>
-      <c r="O18" s="50"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="60"/>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="60"/>
-      <c r="AD18" s="60"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="46"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="46"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
       <c r="AE18" s="60"/>
       <c r="AF18" s="60"/>
       <c r="AG18" s="60"/>
@@ -5521,8 +5862,13 @@
       <c r="AT18" s="60"/>
       <c r="AU18" s="60"/>
       <c r="AV18" s="60"/>
-    </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW18" s="60"/>
+      <c r="AX18" s="60"/>
+      <c r="AY18" s="60"/>
+      <c r="AZ18" s="60"/>
+      <c r="BA18" s="60"/>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" s="75">
         <v>16</v>
       </c>
@@ -5530,23 +5876,24 @@
         <v>64</v>
       </c>
       <c r="C19" s="47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" s="47"/>
       <c r="E19" s="47"/>
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
       <c r="H19" s="47"/>
-      <c r="I19" s="46"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="46"/>
-      <c r="O19" s="50"/>
-      <c r="Z19" s="60"/>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="60"/>
-      <c r="AD19" s="60"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="46"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="46"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
       <c r="AE19" s="60"/>
       <c r="AF19" s="60"/>
       <c r="AG19" s="60"/>
@@ -5565,8 +5912,13 @@
       <c r="AT19" s="60"/>
       <c r="AU19" s="60"/>
       <c r="AV19" s="60"/>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW19" s="60"/>
+      <c r="AX19" s="60"/>
+      <c r="AY19" s="60"/>
+      <c r="AZ19" s="60"/>
+      <c r="BA19" s="60"/>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" s="75">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5575,23 +5927,24 @@
         <v>6</v>
       </c>
       <c r="C20" s="47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D20" s="47"/>
       <c r="E20" s="47"/>
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
       <c r="H20" s="47"/>
-      <c r="I20" s="46"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="46"/>
-      <c r="O20" s="50"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="60"/>
-      <c r="AB20" s="60"/>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="60"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="46"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="46"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
       <c r="AE20" s="60"/>
       <c r="AF20" s="60"/>
       <c r="AG20" s="60"/>
@@ -5610,8 +5963,13 @@
       <c r="AT20" s="60"/>
       <c r="AU20" s="60"/>
       <c r="AV20" s="60"/>
-    </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW20" s="60"/>
+      <c r="AX20" s="60"/>
+      <c r="AY20" s="60"/>
+      <c r="AZ20" s="60"/>
+      <c r="BA20" s="60"/>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" s="75">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5620,23 +5978,24 @@
         <v>7</v>
       </c>
       <c r="C21" s="47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D21" s="47"/>
       <c r="E21" s="47"/>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
       <c r="H21" s="47"/>
-      <c r="I21" s="46"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="46"/>
-      <c r="O21" s="50"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="60"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="46"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="46"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
       <c r="AE21" s="60"/>
       <c r="AF21" s="60"/>
       <c r="AG21" s="60"/>
@@ -5655,8 +6014,13 @@
       <c r="AT21" s="60"/>
       <c r="AU21" s="60"/>
       <c r="AV21" s="60"/>
-    </row>
-    <row r="22" spans="1:48" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW21" s="60"/>
+      <c r="AX21" s="60"/>
+      <c r="AY21" s="60"/>
+      <c r="AZ21" s="60"/>
+      <c r="BA21" s="60"/>
+    </row>
+    <row r="22" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="75">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5665,35 +6029,35 @@
         <v>65</v>
       </c>
       <c r="C22" s="47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
       <c r="H22" s="47"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="46"/>
       <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
       <c r="V22" s="57"/>
       <c r="W22" s="57"/>
       <c r="X22" s="57"/>
       <c r="Y22" s="57"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="60"/>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="60"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="57"/>
       <c r="AE22" s="60"/>
       <c r="AF22" s="60"/>
       <c r="AG22" s="60"/>
@@ -5712,8 +6076,13 @@
       <c r="AT22" s="60"/>
       <c r="AU22" s="60"/>
       <c r="AV22" s="60"/>
-    </row>
-    <row r="23" spans="1:48" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW22" s="60"/>
+      <c r="AX22" s="60"/>
+      <c r="AY22" s="60"/>
+      <c r="AZ22" s="60"/>
+      <c r="BA22" s="60"/>
+    </row>
+    <row r="23" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="75">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5722,35 +6091,35 @@
         <v>66</v>
       </c>
       <c r="C23" s="47">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
       <c r="H23" s="47"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="46"/>
       <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
       <c r="V23" s="57"/>
       <c r="W23" s="57"/>
       <c r="X23" s="57"/>
       <c r="Y23" s="57"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="60"/>
-      <c r="AB23" s="60"/>
-      <c r="AC23" s="60"/>
-      <c r="AD23" s="60"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="57"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="57"/>
       <c r="AE23" s="60"/>
       <c r="AF23" s="60"/>
       <c r="AG23" s="60"/>
@@ -5769,8 +6138,13 @@
       <c r="AT23" s="60"/>
       <c r="AU23" s="60"/>
       <c r="AV23" s="60"/>
-    </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW23" s="60"/>
+      <c r="AX23" s="60"/>
+      <c r="AY23" s="60"/>
+      <c r="AZ23" s="60"/>
+      <c r="BA23" s="60"/>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" s="75">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5779,23 +6153,24 @@
         <v>67</v>
       </c>
       <c r="C24" s="47">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
-      <c r="I24" s="46"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="46"/>
-      <c r="O24" s="50"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="60"/>
-      <c r="AB24" s="60"/>
-      <c r="AC24" s="60"/>
-      <c r="AD24" s="60"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="46"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="46"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
       <c r="AE24" s="60"/>
       <c r="AF24" s="60"/>
       <c r="AG24" s="60"/>
@@ -5814,8 +6189,13 @@
       <c r="AT24" s="60"/>
       <c r="AU24" s="60"/>
       <c r="AV24" s="60"/>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW24" s="60"/>
+      <c r="AX24" s="60"/>
+      <c r="AY24" s="60"/>
+      <c r="AZ24" s="60"/>
+      <c r="BA24" s="60"/>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" s="75">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5824,24 +6204,38 @@
         <v>9</v>
       </c>
       <c r="C25" s="47">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" s="47"/>
       <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
+      <c r="F25" s="47">
+        <v>22</v>
+      </c>
+      <c r="G25" s="47">
+        <v>1</v>
+      </c>
       <c r="H25" s="47"/>
-      <c r="I25" s="46"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="46"/>
-      <c r="O25" s="50"/>
-      <c r="AS25" s="62" t="e">
-        <f>#REF!-AS24</f>
+      <c r="I25" s="47"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="46"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="47">
+        <v>2</v>
+      </c>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111">
+        <v>2</v>
+      </c>
+      <c r="R25" s="46"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="AX25" s="62" t="e">
+        <f>#REF!-AX24</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:48" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="75">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5850,32 +6244,37 @@
         <v>11</v>
       </c>
       <c r="C26" s="47">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D26" s="47"/>
       <c r="E26" s="47"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="46"/>
       <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
       <c r="V26" s="57"/>
       <c r="W26" s="57"/>
       <c r="X26" s="57"/>
       <c r="Y26" s="57"/>
-    </row>
-    <row r="27" spans="1:48" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="57"/>
+    </row>
+    <row r="27" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="75">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5884,32 +6283,42 @@
         <v>12</v>
       </c>
       <c r="C27" s="47">
-        <v>63</v>
+        <f>63+7</f>
+        <v>70</v>
       </c>
       <c r="D27" s="47"/>
       <c r="E27" s="47"/>
       <c r="F27" s="47"/>
       <c r="G27" s="47"/>
       <c r="H27" s="47"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="47">
+        <v>2</v>
+      </c>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111">
+        <v>8</v>
+      </c>
+      <c r="R27" s="46"/>
       <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
       <c r="V27" s="57"/>
       <c r="W27" s="57"/>
       <c r="X27" s="57"/>
       <c r="Y27" s="57"/>
-    </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="57"/>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" s="75">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5918,20 +6327,30 @@
         <v>14</v>
       </c>
       <c r="C28" s="47">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="47"/>
       <c r="F28" s="47"/>
       <c r="G28" s="47"/>
       <c r="H28" s="47"/>
-      <c r="I28" s="46"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="46"/>
-      <c r="O28" s="50"/>
-    </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="I28" s="47"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="46"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="47">
+        <v>1</v>
+      </c>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111">
+        <v>1</v>
+      </c>
+      <c r="R28" s="46"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" s="75">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5940,20 +6359,31 @@
         <v>16</v>
       </c>
       <c r="C29" s="47">
-        <v>61</v>
+        <f>63+36</f>
+        <v>99</v>
       </c>
       <c r="D29" s="47"/>
       <c r="E29" s="47"/>
       <c r="F29" s="47"/>
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
-      <c r="I29" s="46"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="46"/>
-      <c r="O29" s="50"/>
-    </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="I29" s="47"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="46"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="47">
+        <v>1</v>
+      </c>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111">
+        <v>1</v>
+      </c>
+      <c r="R29" s="46"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" s="75">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5967,13 +6397,19 @@
       <c r="F30" s="47"/>
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
-      <c r="I30" s="46"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="46"/>
-      <c r="O30" s="50"/>
-    </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="I30" s="47"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="46"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="46"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+    </row>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" s="75">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5981,21 +6417,25 @@
       <c r="B31" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="47">
-        <v>1</v>
-      </c>
+      <c r="C31" s="47"/>
       <c r="D31" s="47"/>
       <c r="E31" s="47"/>
       <c r="F31" s="47"/>
       <c r="G31" s="47"/>
       <c r="H31" s="47"/>
-      <c r="I31" s="46"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="46"/>
-      <c r="O31" s="50"/>
-    </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="I31" s="47"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="46"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="46"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+    </row>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" s="75">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6011,13 +6451,19 @@
       <c r="F32" s="47"/>
       <c r="G32" s="47"/>
       <c r="H32" s="47"/>
-      <c r="I32" s="46"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="46"/>
-      <c r="O32" s="50"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I32" s="47"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="46"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="46"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="75">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6026,20 +6472,35 @@
         <v>18</v>
       </c>
       <c r="C33" s="47">
-        <v>144</v>
+        <f>144+59</f>
+        <v>203</v>
       </c>
       <c r="D33" s="47"/>
       <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
+      <c r="F33" s="47">
+        <v>22</v>
+      </c>
       <c r="G33" s="47"/>
       <c r="H33" s="47"/>
-      <c r="I33" s="46"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="46"/>
-      <c r="O33" s="50"/>
-    </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="47"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="46">
+        <v>1</v>
+      </c>
+      <c r="M33" s="52"/>
+      <c r="N33" s="121"/>
+      <c r="O33" s="47">
+        <v>2</v>
+      </c>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111">
+        <v>3</v>
+      </c>
+      <c r="R33" s="46"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+    </row>
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="75">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6053,32 +6514,46 @@
       <c r="F34" s="47"/>
       <c r="G34" s="47"/>
       <c r="H34" s="47"/>
-      <c r="I34" s="46"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="46"/>
-      <c r="O34" s="50"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I34" s="47"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="46"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="46"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="75">
         <v>31</v>
       </c>
       <c r="B35" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="47"/>
+      <c r="C35" s="47">
+        <v>1</v>
+      </c>
       <c r="D35" s="47"/>
       <c r="E35" s="47"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
       <c r="H35" s="47"/>
-      <c r="I35" s="46"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="46"/>
-      <c r="O35" s="50"/>
-    </row>
-    <row r="36" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="47"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="46"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="121"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="46"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+    </row>
+    <row r="36" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="75">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6087,22 +6562,39 @@
         <v>20</v>
       </c>
       <c r="C36" s="95">
-        <v>2160</v>
+        <f>2376+4320</f>
+        <v>6696</v>
       </c>
       <c r="D36" s="95"/>
       <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
+      <c r="F36" s="95">
+        <v>4</v>
+      </c>
       <c r="G36" s="95"/>
       <c r="H36" s="95"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="98"/>
-      <c r="N36" s="102"/>
-      <c r="O36" s="104"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I36" s="95">
+        <v>2</v>
+      </c>
+      <c r="J36" s="110"/>
+      <c r="K36" s="96">
+        <v>2</v>
+      </c>
+      <c r="L36" s="102"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="120"/>
+      <c r="O36" s="97">
+        <v>20</v>
+      </c>
+      <c r="P36" s="113"/>
+      <c r="Q36" s="113">
+        <v>86</v>
+      </c>
+      <c r="R36" s="98"/>
+      <c r="S36" s="102"/>
+      <c r="T36" s="104"/>
+      <c r="U36" s="104"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="75">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6110,19 +6602,29 @@
       <c r="B37" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="47"/>
+      <c r="C37" s="47">
+        <v>33</v>
+      </c>
       <c r="D37" s="47"/>
       <c r="E37" s="47"/>
       <c r="F37" s="47"/>
       <c r="G37" s="47"/>
       <c r="H37" s="47"/>
-      <c r="I37" s="46"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="46"/>
-      <c r="O37" s="50"/>
-    </row>
-    <row r="38" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="47"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="46"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="121"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="111">
+        <v>1</v>
+      </c>
+      <c r="R37" s="46"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+    </row>
+    <row r="38" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="75">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6131,22 +6633,33 @@
         <v>22</v>
       </c>
       <c r="C38" s="95">
-        <v>39</v>
+        <f>19+1071</f>
+        <v>1090</v>
       </c>
       <c r="D38" s="95"/>
       <c r="E38" s="95"/>
       <c r="F38" s="95"/>
       <c r="G38" s="95"/>
       <c r="H38" s="95"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="97"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="102"/>
-      <c r="O38" s="104"/>
-    </row>
-    <row r="39" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="95"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="103"/>
+      <c r="N38" s="120"/>
+      <c r="O38" s="97">
+        <v>2</v>
+      </c>
+      <c r="P38" s="113"/>
+      <c r="Q38" s="113">
+        <v>2</v>
+      </c>
+      <c r="R38" s="98"/>
+      <c r="S38" s="102"/>
+      <c r="T38" s="104"/>
+      <c r="U38" s="104"/>
+    </row>
+    <row r="39" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="75">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6155,22 +6668,33 @@
         <v>23</v>
       </c>
       <c r="C39" s="100">
-        <v>768</v>
+        <f>2208+56</f>
+        <v>2264</v>
       </c>
       <c r="D39" s="100"/>
       <c r="E39" s="100"/>
       <c r="F39" s="100"/>
       <c r="G39" s="100"/>
       <c r="H39" s="100"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="106"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="107"/>
-    </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="100"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="122"/>
+      <c r="O39" s="100">
+        <v>8</v>
+      </c>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="112">
+        <v>20</v>
+      </c>
+      <c r="R39" s="101"/>
+      <c r="S39" s="105"/>
+      <c r="T39" s="107"/>
+      <c r="U39" s="107"/>
+    </row>
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="75">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6184,13 +6708,19 @@
       <c r="F40" s="47"/>
       <c r="G40" s="47"/>
       <c r="H40" s="47"/>
-      <c r="I40" s="46"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="46"/>
-      <c r="O40" s="50"/>
-    </row>
-    <row r="41" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="47"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="46"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="46"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+    </row>
+    <row r="41" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="75">
         <v>36</v>
       </c>
@@ -6198,22 +6728,45 @@
         <v>24</v>
       </c>
       <c r="C41" s="97">
-        <v>4320</v>
+        <f>5292+1728+24+8424+4968+10800+1</f>
+        <v>31237</v>
       </c>
       <c r="D41" s="97"/>
       <c r="E41" s="97"/>
       <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="102"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="97"/>
-      <c r="M41" s="98"/>
-      <c r="N41" s="102"/>
-      <c r="O41" s="104"/>
-    </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="97">
+        <v>4</v>
+      </c>
+      <c r="H41" s="97">
+        <v>26</v>
+      </c>
+      <c r="I41" s="97">
+        <v>1</v>
+      </c>
+      <c r="J41" s="113">
+        <v>38</v>
+      </c>
+      <c r="K41" s="98">
+        <v>4</v>
+      </c>
+      <c r="L41" s="102"/>
+      <c r="M41" s="103">
+        <v>648</v>
+      </c>
+      <c r="N41" s="120"/>
+      <c r="O41" s="97">
+        <v>257</v>
+      </c>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="113">
+        <v>541</v>
+      </c>
+      <c r="R41" s="98"/>
+      <c r="S41" s="102"/>
+      <c r="T41" s="104"/>
+      <c r="U41" s="104"/>
+    </row>
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="75">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6227,13 +6780,19 @@
       <c r="F42" s="47"/>
       <c r="G42" s="47"/>
       <c r="H42" s="47"/>
-      <c r="I42" s="46"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="46"/>
-      <c r="O42" s="50"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I42" s="47"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="46"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="121"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="46"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="75">
         <v>37</v>
       </c>
@@ -6246,13 +6805,19 @@
       <c r="F43" s="47"/>
       <c r="G43" s="47"/>
       <c r="H43" s="47"/>
-      <c r="I43" s="46"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="46"/>
-      <c r="O43" s="50"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I43" s="47"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="46"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="121"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="111"/>
+      <c r="Q43" s="111"/>
+      <c r="R43" s="46"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="50"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="75">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6261,20 +6826,26 @@
         <v>68</v>
       </c>
       <c r="C44" s="47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" s="47"/>
       <c r="E44" s="47"/>
       <c r="F44" s="47"/>
       <c r="G44" s="47"/>
       <c r="H44" s="47"/>
-      <c r="I44" s="46"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="46"/>
-      <c r="O44" s="50"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I44" s="47"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="46"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="121"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="111"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="46"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="75">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6283,20 +6854,35 @@
         <v>26</v>
       </c>
       <c r="C45" s="47">
-        <v>64</v>
+        <f>4+2268+102</f>
+        <v>2374</v>
       </c>
       <c r="D45" s="47"/>
       <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
+      <c r="F45" s="47">
+        <v>3</v>
+      </c>
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
-      <c r="I45" s="46"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="46"/>
-      <c r="O45" s="50"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I45" s="47"/>
+      <c r="J45" s="111">
+        <v>1</v>
+      </c>
+      <c r="K45" s="46"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="121"/>
+      <c r="O45" s="47">
+        <v>2</v>
+      </c>
+      <c r="P45" s="111"/>
+      <c r="Q45" s="111">
+        <v>18</v>
+      </c>
+      <c r="R45" s="46"/>
+      <c r="T45" s="50"/>
+      <c r="U45" s="50"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="75">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6310,13 +6896,19 @@
       <c r="F46" s="47"/>
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
-      <c r="I46" s="46"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="46"/>
-      <c r="O46" s="50"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I46" s="47"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="46"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="121"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="111"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="46"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="75">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6324,19 +6916,27 @@
       <c r="B47" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="47"/>
+      <c r="C47" s="47">
+        <v>1</v>
+      </c>
       <c r="D47" s="47"/>
       <c r="E47" s="47"/>
       <c r="F47" s="47"/>
       <c r="G47" s="47"/>
       <c r="H47" s="47"/>
-      <c r="I47" s="46"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="46"/>
-      <c r="O47" s="50"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I47" s="47"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="46"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="121"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="111"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="46"/>
+      <c r="T47" s="50"/>
+      <c r="U47" s="50"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="75">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6350,13 +6950,19 @@
       <c r="F48" s="47"/>
       <c r="G48" s="47"/>
       <c r="H48" s="47"/>
-      <c r="I48" s="46"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="46"/>
-      <c r="O48" s="50"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I48" s="47"/>
+      <c r="J48" s="111"/>
+      <c r="K48" s="46"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="121"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="111"/>
+      <c r="Q48" s="111"/>
+      <c r="R48" s="46"/>
+      <c r="T48" s="50"/>
+      <c r="U48" s="50"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="75">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6365,20 +6971,26 @@
         <v>29</v>
       </c>
       <c r="C49" s="47">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D49" s="47"/>
       <c r="E49" s="47"/>
       <c r="F49" s="47"/>
       <c r="G49" s="47"/>
       <c r="H49" s="47"/>
-      <c r="I49" s="46"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="46"/>
-      <c r="O49" s="50"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I49" s="47"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="46"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="121"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="111"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="46"/>
+      <c r="T49" s="50"/>
+      <c r="U49" s="50"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="75">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6392,51 +7004,107 @@
       <c r="F50" s="47"/>
       <c r="G50" s="47"/>
       <c r="H50" s="47"/>
-      <c r="I50" s="46"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="46"/>
-      <c r="O50" s="50"/>
-    </row>
-    <row r="51" spans="1:15" s="63" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I50" s="47"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="46"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="121"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="46"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="50"/>
+    </row>
+    <row r="51" spans="1:21" s="63" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="77" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="49">
         <f>SUM(C7:C50)</f>
-        <v>11399</v>
+        <v>48407</v>
       </c>
       <c r="D51" s="49"/>
       <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="54"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="51"/>
-    </row>
-    <row r="52" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="49">
+        <f t="shared" ref="F51:K51" si="1">SUM(F7:F50)</f>
+        <v>68</v>
+      </c>
+      <c r="G51" s="49">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H51" s="49">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I51" s="54">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J51" s="54">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="K51" s="54">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="M51" s="53">
+        <f t="shared" ref="M51:R51" si="2">SUM(M7:M50)</f>
+        <v>671</v>
+      </c>
+      <c r="N51" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="53">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="P51" s="53">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q51" s="53">
+        <f t="shared" si="2"/>
+        <v>706</v>
+      </c>
+      <c r="R51" s="53">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S51" s="57"/>
+      <c r="T51" s="51">
+        <f>SUM(T7:T50)</f>
+        <v>89</v>
+      </c>
+      <c r="U51" s="51">
+        <f>SUM(U7:U50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="115" t="s">
+      <c r="C53" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="116"/>
-      <c r="E53" s="116"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="116"/>
-      <c r="I53" s="117"/>
-      <c r="O53" s="72" t="s">
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="131"/>
+      <c r="J53" s="131"/>
+      <c r="K53" s="132"/>
+      <c r="T53" s="72" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B54" s="79" t="s">
         <v>18</v>
       </c>
@@ -6446,10 +7114,12 @@
       <c r="F54" s="67"/>
       <c r="G54" s="67"/>
       <c r="H54" s="67"/>
-      <c r="I54" s="68"/>
-      <c r="O54" s="55"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I54" s="67"/>
+      <c r="J54" s="114"/>
+      <c r="K54" s="68"/>
+      <c r="T54" s="55"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B55" s="80" t="s">
         <v>55</v>
       </c>
@@ -6459,10 +7129,12 @@
       <c r="F55" s="48"/>
       <c r="G55" s="48"/>
       <c r="H55" s="48"/>
-      <c r="I55" s="69"/>
-      <c r="O55" s="50"/>
-    </row>
-    <row r="56" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I55" s="48"/>
+      <c r="J55" s="109"/>
+      <c r="K55" s="69"/>
+      <c r="T55" s="50"/>
+    </row>
+    <row r="56" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="81" t="s">
         <v>54</v>
       </c>
@@ -6472,11 +7144,13 @@
       <c r="F56" s="70"/>
       <c r="G56" s="70"/>
       <c r="H56" s="70"/>
-      <c r="I56" s="71"/>
-      <c r="O56" s="56"/>
-    </row>
-    <row r="57" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I56" s="70"/>
+      <c r="J56" s="115"/>
+      <c r="K56" s="71"/>
+      <c r="T56" s="56"/>
+    </row>
+    <row r="57" spans="1:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B58" s="79" t="s">
         <v>56</v>
       </c>
@@ -6486,10 +7160,12 @@
       <c r="F58" s="67"/>
       <c r="G58" s="67"/>
       <c r="H58" s="67"/>
-      <c r="I58" s="68"/>
-      <c r="O58" s="55"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I58" s="67"/>
+      <c r="J58" s="114"/>
+      <c r="K58" s="68"/>
+      <c r="T58" s="55"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B59" s="80" t="s">
         <v>55</v>
       </c>
@@ -6499,10 +7175,12 @@
       <c r="F59" s="48"/>
       <c r="G59" s="48"/>
       <c r="H59" s="48"/>
-      <c r="I59" s="69"/>
-      <c r="O59" s="50"/>
-    </row>
-    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I59" s="48"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="69"/>
+      <c r="T59" s="50"/>
+    </row>
+    <row r="60" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="81" t="s">
         <v>54</v>
       </c>
@@ -6512,11 +7190,13 @@
       <c r="F60" s="70"/>
       <c r="G60" s="70"/>
       <c r="H60" s="70"/>
-      <c r="I60" s="71"/>
-      <c r="O60" s="56"/>
-    </row>
-    <row r="61" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I60" s="70"/>
+      <c r="J60" s="115"/>
+      <c r="K60" s="71"/>
+      <c r="T60" s="56"/>
+    </row>
+    <row r="61" spans="1:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B62" s="79" t="s">
         <v>41</v>
       </c>
@@ -6526,10 +7206,12 @@
       <c r="F62" s="67"/>
       <c r="G62" s="67"/>
       <c r="H62" s="67"/>
-      <c r="I62" s="68"/>
-      <c r="O62" s="55"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I62" s="67"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="68"/>
+      <c r="T62" s="55"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B63" s="80" t="s">
         <v>55</v>
       </c>
@@ -6539,10 +7221,12 @@
       <c r="F63" s="48"/>
       <c r="G63" s="48"/>
       <c r="H63" s="48"/>
-      <c r="I63" s="69"/>
-      <c r="O63" s="50"/>
-    </row>
-    <row r="64" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I63" s="48"/>
+      <c r="J63" s="109"/>
+      <c r="K63" s="69"/>
+      <c r="T63" s="50"/>
+    </row>
+    <row r="64" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="81" t="s">
         <v>54</v>
       </c>
@@ -6552,11 +7236,13 @@
       <c r="F64" s="70"/>
       <c r="G64" s="70"/>
       <c r="H64" s="70"/>
-      <c r="I64" s="71"/>
-      <c r="O64" s="56"/>
-    </row>
-    <row r="65" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I64" s="70"/>
+      <c r="J64" s="115"/>
+      <c r="K64" s="71"/>
+      <c r="T64" s="56"/>
+    </row>
+    <row r="65" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B66" s="79" t="s">
         <v>57</v>
       </c>
@@ -6566,10 +7252,12 @@
       <c r="F66" s="67"/>
       <c r="G66" s="67"/>
       <c r="H66" s="67"/>
-      <c r="I66" s="68"/>
-      <c r="O66" s="55"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I66" s="67"/>
+      <c r="J66" s="114"/>
+      <c r="K66" s="68"/>
+      <c r="T66" s="55"/>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B67" s="80" t="s">
         <v>55</v>
       </c>
@@ -6579,10 +7267,12 @@
       <c r="F67" s="48"/>
       <c r="G67" s="48"/>
       <c r="H67" s="48"/>
-      <c r="I67" s="69"/>
-      <c r="O67" s="50"/>
-    </row>
-    <row r="68" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I67" s="48"/>
+      <c r="J67" s="109"/>
+      <c r="K67" s="69"/>
+      <c r="T67" s="50"/>
+    </row>
+    <row r="68" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="81" t="s">
         <v>54</v>
       </c>
@@ -6592,11 +7282,13 @@
       <c r="F68" s="70"/>
       <c r="G68" s="70"/>
       <c r="H68" s="70"/>
-      <c r="I68" s="71"/>
-      <c r="O68" s="56"/>
-    </row>
-    <row r="69" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I68" s="70"/>
+      <c r="J68" s="115"/>
+      <c r="K68" s="71"/>
+      <c r="T68" s="56"/>
+    </row>
+    <row r="69" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B70" s="79" t="s">
         <v>58</v>
       </c>
@@ -6606,10 +7298,12 @@
       <c r="F70" s="67"/>
       <c r="G70" s="67"/>
       <c r="H70" s="67"/>
-      <c r="I70" s="68"/>
-      <c r="O70" s="55"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I70" s="67"/>
+      <c r="J70" s="114"/>
+      <c r="K70" s="68"/>
+      <c r="T70" s="55"/>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B71" s="80" t="s">
         <v>55</v>
       </c>
@@ -6619,10 +7313,12 @@
       <c r="F71" s="48"/>
       <c r="G71" s="48"/>
       <c r="H71" s="48"/>
-      <c r="I71" s="69"/>
-      <c r="O71" s="50"/>
-    </row>
-    <row r="72" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I71" s="48"/>
+      <c r="J71" s="109"/>
+      <c r="K71" s="69"/>
+      <c r="T71" s="50"/>
+    </row>
+    <row r="72" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="81" t="s">
         <v>54</v>
       </c>
@@ -6632,11 +7328,13 @@
       <c r="F72" s="70"/>
       <c r="G72" s="70"/>
       <c r="H72" s="70"/>
-      <c r="I72" s="71"/>
-      <c r="O72" s="56"/>
-    </row>
-    <row r="73" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I72" s="70"/>
+      <c r="J72" s="115"/>
+      <c r="K72" s="71"/>
+      <c r="T72" s="56"/>
+    </row>
+    <row r="73" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="78" t="s">
         <v>59</v>
       </c>
@@ -6646,20 +7344,22 @@
       <c r="F74" s="65"/>
       <c r="G74" s="65"/>
       <c r="H74" s="65"/>
-      <c r="I74" s="66"/>
-      <c r="O74" s="64"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="116"/>
+      <c r="K74" s="66"/>
+      <c r="T74" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C53:I53"/>
+    <mergeCell ref="I1:T1"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C53:K53"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="14" scale="70" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="18" max="80" man="1"/>
+    <brk id="23" max="80" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
--- a/GBDS JANUARY FILES 2026/INVENTORY COUNT SHEET 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/INVENTORY COUNT SHEET 2026.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06A3258-C128-4245-8FA0-CFC18D1E97A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B47C95-A65F-4DC6-8048-CE11D9F176DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D34C963E-9680-4B45-A4EE-B681FF0CEC08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D34C963E-9680-4B45-A4EE-B681FF0CEC08}"/>
   </bookViews>
   <sheets>
     <sheet name="COUNT SHEET" sheetId="9" r:id="rId1"/>
     <sheet name="COUNT SHEET VERT" sheetId="10" r:id="rId2"/>
     <sheet name="01,08" sheetId="11" r:id="rId3"/>
+    <sheet name="01,09" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'01,08'!$A$1:$V$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'01,09'!$A$1:$V$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COUNT SHEET'!$A$1:$AM$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'COUNT SHEET VERT'!$A$1:$Q$82</definedName>
   </definedNames>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="76">
   <si>
     <t>ROUTE 1</t>
   </si>
@@ -261,6 +263,12 @@
   </si>
   <si>
     <t>bot</t>
+  </si>
+  <si>
+    <t>DATE: 08/01/2026</t>
+  </si>
+  <si>
+    <t>DATE: 09/01/2026</t>
   </si>
 </sst>
 </file>
@@ -5006,8 +5014,8 @@
   </sheetPr>
   <dimension ref="A1:BA74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -5060,7 +5068,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B2" s="76" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:53" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -7362,4 +7370,2641 @@
     <brk id="23" max="80" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3B4813-E558-48D1-978D-147EF40DE8F0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BA74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="76" customWidth="1"/>
+    <col min="3" max="3" width="14" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10" style="57" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="57" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="57" customWidth="1"/>
+    <col min="9" max="9" width="5" style="57" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="57" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.42578125" style="57" customWidth="1"/>
+    <col min="13" max="13" width="10" style="57" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="57" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" style="57" customWidth="1"/>
+    <col min="17" max="17" width="10" style="57" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="57" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="57" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" style="57" customWidth="1"/>
+    <col min="22" max="48" width="7.28515625" style="57" customWidth="1"/>
+    <col min="49" max="49" width="1.5703125" style="57" customWidth="1"/>
+    <col min="50" max="50" width="9.42578125" style="57" customWidth="1"/>
+    <col min="51" max="51" width="1.28515625" style="57" customWidth="1"/>
+    <col min="52" max="52" width="12.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.140625" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="133" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B2" s="76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:53" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="129"/>
+      <c r="M4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="57"/>
+      <c r="T4" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="59"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="59"/>
+    </row>
+    <row r="5" spans="1:53" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="87"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="89"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="59"/>
+      <c r="AS5" s="59"/>
+      <c r="AT5" s="59"/>
+      <c r="AU5" s="59"/>
+      <c r="AV5" s="59"/>
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59"/>
+      <c r="AY5" s="59"/>
+      <c r="AZ5" s="59"/>
+      <c r="BA5" s="59"/>
+    </row>
+    <row r="6" spans="1:53" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="87"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="89"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="59"/>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="59"/>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="59"/>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="59"/>
+      <c r="AS6" s="59"/>
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="59"/>
+      <c r="AV6" s="59"/>
+      <c r="AW6" s="59"/>
+      <c r="AX6" s="59"/>
+      <c r="AY6" s="59"/>
+      <c r="AZ6" s="59"/>
+      <c r="BA6" s="59"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
+        <v>1</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="48">
+        <f>63+17</f>
+        <v>80</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48">
+        <v>17</v>
+      </c>
+      <c r="G7" s="48">
+        <v>1</v>
+      </c>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="69">
+        <v>6</v>
+      </c>
+      <c r="M7" s="88"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="48">
+        <v>3</v>
+      </c>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109">
+        <v>1</v>
+      </c>
+      <c r="R7" s="69"/>
+      <c r="T7" s="91">
+        <f>C7+M7+O7+Q7+1</f>
+        <v>85</v>
+      </c>
+      <c r="U7" s="91">
+        <f>N7+P7+R7</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="60"/>
+      <c r="AP7" s="60"/>
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="60"/>
+      <c r="AU7" s="60"/>
+      <c r="AV7" s="60"/>
+      <c r="AW7" s="60"/>
+      <c r="AX7" s="60"/>
+      <c r="AY7" s="60"/>
+      <c r="AZ7" s="60"/>
+      <c r="BA7" s="60"/>
+    </row>
+    <row r="8" spans="1:53" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="75">
+        <f>A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="95">
+        <f>126+14+1</f>
+        <v>141</v>
+      </c>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="103">
+        <v>1</v>
+      </c>
+      <c r="N8" s="120"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113">
+        <v>1</v>
+      </c>
+      <c r="R8" s="98"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="91">
+        <f>C8+M8+O8+Q8</f>
+        <v>143</v>
+      </c>
+      <c r="U8" s="91">
+        <f t="shared" ref="U8:U50" si="0">N8+P8+R8</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="60"/>
+      <c r="AL8" s="60"/>
+      <c r="AM8" s="60"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="60"/>
+      <c r="AP8" s="60"/>
+      <c r="AQ8" s="60"/>
+      <c r="AR8" s="60"/>
+      <c r="AS8" s="60"/>
+      <c r="AT8" s="60"/>
+      <c r="AU8" s="60"/>
+      <c r="AV8" s="60"/>
+      <c r="AW8" s="60"/>
+      <c r="AX8" s="60"/>
+      <c r="AY8" s="60"/>
+      <c r="AZ8" s="60"/>
+      <c r="BA8" s="60"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9" s="75">
+        <f t="shared" ref="A9:A50" si="1">A8+1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="46"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="46"/>
+      <c r="T9" s="91">
+        <f t="shared" ref="T9:T50" si="2">C9+M9+O9+Q9</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="60"/>
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="60"/>
+      <c r="AT9" s="60"/>
+      <c r="AU9" s="60"/>
+      <c r="AV9" s="60"/>
+      <c r="AW9" s="60"/>
+      <c r="AX9" s="60"/>
+      <c r="AY9" s="60"/>
+      <c r="AZ9" s="60"/>
+      <c r="BA9" s="60"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="75">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="47">
+        <v>7</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="46"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="47">
+        <v>2</v>
+      </c>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="46"/>
+      <c r="T10" s="91">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="U10" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="60"/>
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="60"/>
+      <c r="AN10" s="60"/>
+      <c r="AO10" s="60"/>
+      <c r="AP10" s="60"/>
+      <c r="AQ10" s="60"/>
+      <c r="AR10" s="60"/>
+      <c r="AS10" s="60"/>
+      <c r="AT10" s="60"/>
+      <c r="AU10" s="60"/>
+      <c r="AV10" s="60"/>
+      <c r="AW10" s="60"/>
+      <c r="AX10" s="60"/>
+      <c r="AY10" s="60"/>
+      <c r="AZ10" s="60"/>
+      <c r="BA10" s="60"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11" s="75">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="47">
+        <v>28</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="46"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="46"/>
+      <c r="T11" s="91">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="U11" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="60"/>
+      <c r="AM11" s="60"/>
+      <c r="AN11" s="60"/>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="60"/>
+      <c r="AU11" s="60"/>
+      <c r="AV11" s="60"/>
+      <c r="AW11" s="60"/>
+      <c r="AX11" s="60"/>
+      <c r="AY11" s="60"/>
+      <c r="AZ11" s="60"/>
+      <c r="BA11" s="60"/>
+    </row>
+    <row r="12" spans="1:53" s="61" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="75">
+        <v>7</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="95">
+        <f>1152+48+1728+864+6</f>
+        <v>3798</v>
+      </c>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="103">
+        <v>10</v>
+      </c>
+      <c r="N12" s="120"/>
+      <c r="O12" s="97">
+        <v>11</v>
+      </c>
+      <c r="P12" s="113">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="113">
+        <v>15</v>
+      </c>
+      <c r="R12" s="98">
+        <v>8</v>
+      </c>
+      <c r="S12" s="102"/>
+      <c r="T12" s="91">
+        <f t="shared" si="2"/>
+        <v>3834</v>
+      </c>
+      <c r="U12" s="91">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="60"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="60"/>
+      <c r="AK12" s="60"/>
+      <c r="AL12" s="60"/>
+      <c r="AM12" s="60"/>
+      <c r="AN12" s="60"/>
+      <c r="AO12" s="60"/>
+      <c r="AP12" s="60"/>
+      <c r="AQ12" s="60"/>
+      <c r="AR12" s="60"/>
+      <c r="AS12" s="60"/>
+      <c r="AT12" s="60"/>
+      <c r="AU12" s="60"/>
+      <c r="AV12" s="60"/>
+      <c r="AW12" s="60"/>
+      <c r="AX12" s="60"/>
+      <c r="AY12" s="60"/>
+      <c r="AZ12" s="60"/>
+      <c r="BA12" s="60"/>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" s="75">
+        <v>11</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="47">
+        <v>5</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="46"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="46"/>
+      <c r="T13" s="91">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="U13" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="60"/>
+      <c r="AH13" s="60"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="60"/>
+      <c r="AK13" s="60"/>
+      <c r="AL13" s="60"/>
+      <c r="AM13" s="60"/>
+      <c r="AN13" s="60"/>
+      <c r="AO13" s="60"/>
+      <c r="AP13" s="60"/>
+      <c r="AQ13" s="60"/>
+      <c r="AR13" s="60"/>
+      <c r="AS13" s="60"/>
+      <c r="AT13" s="60"/>
+      <c r="AU13" s="60"/>
+      <c r="AV13" s="60"/>
+      <c r="AW13" s="60"/>
+      <c r="AX13" s="60"/>
+      <c r="AY13" s="60"/>
+      <c r="AZ13" s="60"/>
+      <c r="BA13" s="60"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" s="75">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="47">
+        <v>1</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="46"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="46"/>
+      <c r="T14" s="91">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U14" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="60"/>
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="60"/>
+      <c r="AK14" s="60"/>
+      <c r="AL14" s="60"/>
+      <c r="AM14" s="60"/>
+      <c r="AN14" s="60"/>
+      <c r="AO14" s="60"/>
+      <c r="AP14" s="60"/>
+      <c r="AQ14" s="60"/>
+      <c r="AR14" s="60"/>
+      <c r="AS14" s="60"/>
+      <c r="AT14" s="60"/>
+      <c r="AU14" s="60"/>
+      <c r="AV14" s="60"/>
+      <c r="AW14" s="60"/>
+      <c r="AX14" s="60"/>
+      <c r="AY14" s="60"/>
+      <c r="AZ14" s="60"/>
+      <c r="BA14" s="60"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" s="75">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="47">
+        <v>1</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="46"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="46"/>
+      <c r="T15" s="91">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U15" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="60"/>
+      <c r="AG15" s="60"/>
+      <c r="AH15" s="60"/>
+      <c r="AI15" s="60"/>
+      <c r="AJ15" s="60"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="60"/>
+      <c r="AM15" s="60"/>
+      <c r="AN15" s="60"/>
+      <c r="AO15" s="60"/>
+      <c r="AP15" s="60"/>
+      <c r="AQ15" s="60"/>
+      <c r="AR15" s="60"/>
+      <c r="AS15" s="60"/>
+      <c r="AT15" s="60"/>
+      <c r="AU15" s="60"/>
+      <c r="AV15" s="60"/>
+      <c r="AW15" s="60"/>
+      <c r="AX15" s="60"/>
+      <c r="AY15" s="60"/>
+      <c r="AZ15" s="60"/>
+      <c r="BA15" s="60"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16" s="75">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="46"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="46"/>
+      <c r="T16" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="60"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="60"/>
+      <c r="AJ16" s="60"/>
+      <c r="AK16" s="60"/>
+      <c r="AL16" s="60"/>
+      <c r="AM16" s="60"/>
+      <c r="AN16" s="60"/>
+      <c r="AO16" s="60"/>
+      <c r="AP16" s="60"/>
+      <c r="AQ16" s="60"/>
+      <c r="AR16" s="60"/>
+      <c r="AS16" s="60"/>
+      <c r="AT16" s="60"/>
+      <c r="AU16" s="60"/>
+      <c r="AV16" s="60"/>
+      <c r="AW16" s="60"/>
+      <c r="AX16" s="60"/>
+      <c r="AY16" s="60"/>
+      <c r="AZ16" s="60"/>
+      <c r="BA16" s="60"/>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A17" s="75">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="47">
+        <v>6</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="46"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="46"/>
+      <c r="T17" s="91">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="U17" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="60"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="60"/>
+      <c r="AJ17" s="60"/>
+      <c r="AK17" s="60"/>
+      <c r="AL17" s="60"/>
+      <c r="AM17" s="60"/>
+      <c r="AN17" s="60"/>
+      <c r="AO17" s="60"/>
+      <c r="AP17" s="60"/>
+      <c r="AQ17" s="60"/>
+      <c r="AR17" s="60"/>
+      <c r="AS17" s="60"/>
+      <c r="AT17" s="60"/>
+      <c r="AU17" s="60"/>
+      <c r="AV17" s="60"/>
+      <c r="AW17" s="60"/>
+      <c r="AX17" s="60"/>
+      <c r="AY17" s="60"/>
+      <c r="AZ17" s="60"/>
+      <c r="BA17" s="60"/>
+    </row>
+    <row r="18" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="75">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="46"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="46"/>
+      <c r="T18" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="60"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="60"/>
+      <c r="AJ18" s="60"/>
+      <c r="AK18" s="60"/>
+      <c r="AL18" s="60"/>
+      <c r="AM18" s="60"/>
+      <c r="AN18" s="60"/>
+      <c r="AO18" s="60"/>
+      <c r="AP18" s="60"/>
+      <c r="AQ18" s="60"/>
+      <c r="AR18" s="60"/>
+      <c r="AS18" s="60"/>
+      <c r="AT18" s="60"/>
+      <c r="AU18" s="60"/>
+      <c r="AV18" s="60"/>
+      <c r="AW18" s="60"/>
+      <c r="AX18" s="60"/>
+      <c r="AY18" s="60"/>
+      <c r="AZ18" s="60"/>
+      <c r="BA18" s="60"/>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A19" s="75">
+        <v>16</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="47">
+        <v>4</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="46"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="46"/>
+      <c r="T19" s="91">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U19" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="60"/>
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="60"/>
+      <c r="AM19" s="60"/>
+      <c r="AN19" s="60"/>
+      <c r="AO19" s="60"/>
+      <c r="AP19" s="60"/>
+      <c r="AQ19" s="60"/>
+      <c r="AR19" s="60"/>
+      <c r="AS19" s="60"/>
+      <c r="AT19" s="60"/>
+      <c r="AU19" s="60"/>
+      <c r="AV19" s="60"/>
+      <c r="AW19" s="60"/>
+      <c r="AX19" s="60"/>
+      <c r="AY19" s="60"/>
+      <c r="AZ19" s="60"/>
+      <c r="BA19" s="60"/>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A20" s="75">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="47">
+        <v>7</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="46"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="46"/>
+      <c r="T20" s="91">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="U20" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="60"/>
+      <c r="AJ20" s="60"/>
+      <c r="AK20" s="60"/>
+      <c r="AL20" s="60"/>
+      <c r="AM20" s="60"/>
+      <c r="AN20" s="60"/>
+      <c r="AO20" s="60"/>
+      <c r="AP20" s="60"/>
+      <c r="AQ20" s="60"/>
+      <c r="AR20" s="60"/>
+      <c r="AS20" s="60"/>
+      <c r="AT20" s="60"/>
+      <c r="AU20" s="60"/>
+      <c r="AV20" s="60"/>
+      <c r="AW20" s="60"/>
+      <c r="AX20" s="60"/>
+      <c r="AY20" s="60"/>
+      <c r="AZ20" s="60"/>
+      <c r="BA20" s="60"/>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A21" s="75">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="47">
+        <v>6</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="46"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="46"/>
+      <c r="T21" s="91">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="U21" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="60"/>
+      <c r="AI21" s="60"/>
+      <c r="AJ21" s="60"/>
+      <c r="AK21" s="60"/>
+      <c r="AL21" s="60"/>
+      <c r="AM21" s="60"/>
+      <c r="AN21" s="60"/>
+      <c r="AO21" s="60"/>
+      <c r="AP21" s="60"/>
+      <c r="AQ21" s="60"/>
+      <c r="AR21" s="60"/>
+      <c r="AS21" s="60"/>
+      <c r="AT21" s="60"/>
+      <c r="AU21" s="60"/>
+      <c r="AV21" s="60"/>
+      <c r="AW21" s="60"/>
+      <c r="AX21" s="60"/>
+      <c r="AY21" s="60"/>
+      <c r="AZ21" s="60"/>
+      <c r="BA21" s="60"/>
+    </row>
+    <row r="22" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="75">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="47">
+        <v>4</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="91">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U22" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="57"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="60"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="60"/>
+      <c r="AI22" s="60"/>
+      <c r="AJ22" s="60"/>
+      <c r="AK22" s="60"/>
+      <c r="AL22" s="60"/>
+      <c r="AM22" s="60"/>
+      <c r="AN22" s="60"/>
+      <c r="AO22" s="60"/>
+      <c r="AP22" s="60"/>
+      <c r="AQ22" s="60"/>
+      <c r="AR22" s="60"/>
+      <c r="AS22" s="60"/>
+      <c r="AT22" s="60"/>
+      <c r="AU22" s="60"/>
+      <c r="AV22" s="60"/>
+      <c r="AW22" s="60"/>
+      <c r="AX22" s="60"/>
+      <c r="AY22" s="60"/>
+      <c r="AZ22" s="60"/>
+      <c r="BA22" s="60"/>
+    </row>
+    <row r="23" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="75">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="47">
+        <v>55</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="91">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="U23" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="57"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="60"/>
+      <c r="AG23" s="60"/>
+      <c r="AH23" s="60"/>
+      <c r="AI23" s="60"/>
+      <c r="AJ23" s="60"/>
+      <c r="AK23" s="60"/>
+      <c r="AL23" s="60"/>
+      <c r="AM23" s="60"/>
+      <c r="AN23" s="60"/>
+      <c r="AO23" s="60"/>
+      <c r="AP23" s="60"/>
+      <c r="AQ23" s="60"/>
+      <c r="AR23" s="60"/>
+      <c r="AS23" s="60"/>
+      <c r="AT23" s="60"/>
+      <c r="AU23" s="60"/>
+      <c r="AV23" s="60"/>
+      <c r="AW23" s="60"/>
+      <c r="AX23" s="60"/>
+      <c r="AY23" s="60"/>
+      <c r="AZ23" s="60"/>
+      <c r="BA23" s="60"/>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A24" s="75">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="47">
+        <v>8</v>
+      </c>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="46"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="46"/>
+      <c r="T24" s="91">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="U24" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="60"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="60"/>
+      <c r="AJ24" s="60"/>
+      <c r="AK24" s="60"/>
+      <c r="AL24" s="60"/>
+      <c r="AM24" s="60"/>
+      <c r="AN24" s="60"/>
+      <c r="AO24" s="60"/>
+      <c r="AP24" s="60"/>
+      <c r="AQ24" s="60"/>
+      <c r="AR24" s="60"/>
+      <c r="AS24" s="60"/>
+      <c r="AT24" s="60"/>
+      <c r="AU24" s="60"/>
+      <c r="AV24" s="60"/>
+      <c r="AW24" s="60"/>
+      <c r="AX24" s="60"/>
+      <c r="AY24" s="60"/>
+      <c r="AZ24" s="60"/>
+      <c r="BA24" s="60"/>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A25" s="75">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="47">
+        <v>61</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47">
+        <v>22</v>
+      </c>
+      <c r="G25" s="47">
+        <v>1</v>
+      </c>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="46"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="47">
+        <v>1</v>
+      </c>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="46"/>
+      <c r="T25" s="91">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="U25" s="91">
+        <f>F25+G25+N25+P25+R25</f>
+        <v>23</v>
+      </c>
+      <c r="AX25" s="62" t="e">
+        <f>#REF!-AX24</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="75">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="47">
+        <v>20</v>
+      </c>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="91">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="U26" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="57"/>
+    </row>
+    <row r="27" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="75">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="47">
+        <v>60</v>
+      </c>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="52">
+        <v>1</v>
+      </c>
+      <c r="N27" s="121"/>
+      <c r="O27" s="47">
+        <v>2</v>
+      </c>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111">
+        <v>3</v>
+      </c>
+      <c r="R27" s="46"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="91">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="U27" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="57"/>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A28" s="75">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="47">
+        <v>4</v>
+      </c>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="46"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111">
+        <v>1</v>
+      </c>
+      <c r="R28" s="46"/>
+      <c r="T28" s="91">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="U28" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A29" s="75">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="47">
+        <f>63+33+1</f>
+        <v>97</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="46"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111">
+        <v>1</v>
+      </c>
+      <c r="R29" s="46"/>
+      <c r="T29" s="91">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="U29" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A30" s="75">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="46"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="46"/>
+      <c r="T30" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A31" s="75">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="46"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="46"/>
+      <c r="T31" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A32" s="75">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="47">
+        <v>5</v>
+      </c>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="46"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="46"/>
+      <c r="T32" s="91">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="U32" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="75">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="47">
+        <f>144+53</f>
+        <v>197</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47">
+        <v>22</v>
+      </c>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="46">
+        <v>1</v>
+      </c>
+      <c r="M33" s="52">
+        <v>1</v>
+      </c>
+      <c r="N33" s="121"/>
+      <c r="O33" s="47">
+        <v>3</v>
+      </c>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111">
+        <v>2</v>
+      </c>
+      <c r="R33" s="46"/>
+      <c r="T33" s="91">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="U33" s="91">
+        <f>F33+K33+N33+P33+R33</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="75">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="46"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="46"/>
+      <c r="T34" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="91">
+        <f t="shared" ref="U34:U37" si="3">F34+K34+N34+P34+R34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="75">
+        <v>31</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="47">
+        <v>1</v>
+      </c>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="46"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="121"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="46"/>
+      <c r="T35" s="91">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U35" s="91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="75">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="95">
+        <f>2376+4104+55</f>
+        <v>6535</v>
+      </c>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95">
+        <v>4</v>
+      </c>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95">
+        <v>2</v>
+      </c>
+      <c r="J36" s="110"/>
+      <c r="K36" s="96">
+        <v>2</v>
+      </c>
+      <c r="L36" s="102"/>
+      <c r="M36" s="103">
+        <v>20</v>
+      </c>
+      <c r="N36" s="120"/>
+      <c r="O36" s="97">
+        <v>37</v>
+      </c>
+      <c r="P36" s="113"/>
+      <c r="Q36" s="113">
+        <v>80</v>
+      </c>
+      <c r="R36" s="98"/>
+      <c r="S36" s="102"/>
+      <c r="T36" s="91">
+        <f t="shared" si="2"/>
+        <v>6672</v>
+      </c>
+      <c r="U36" s="91">
+        <f>F36+I36+K36+N36+P36+R36</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="75">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="47">
+        <f>33+1</f>
+        <v>34</v>
+      </c>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="46"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="121"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="111">
+        <v>1</v>
+      </c>
+      <c r="R37" s="46"/>
+      <c r="T37" s="91">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="U37" s="91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="75">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="95">
+        <f>17+1071</f>
+        <v>1088</v>
+      </c>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="103"/>
+      <c r="N38" s="120"/>
+      <c r="O38" s="97">
+        <v>2</v>
+      </c>
+      <c r="P38" s="113"/>
+      <c r="Q38" s="113">
+        <v>2</v>
+      </c>
+      <c r="R38" s="98"/>
+      <c r="S38" s="102"/>
+      <c r="T38" s="91">
+        <f t="shared" si="2"/>
+        <v>1092</v>
+      </c>
+      <c r="U38" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="75">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="100">
+        <f>2208+6+3</f>
+        <v>2217</v>
+      </c>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="106">
+        <v>5</v>
+      </c>
+      <c r="N39" s="122"/>
+      <c r="O39" s="100">
+        <v>12</v>
+      </c>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="112">
+        <v>20</v>
+      </c>
+      <c r="R39" s="101"/>
+      <c r="S39" s="105"/>
+      <c r="T39" s="91">
+        <f t="shared" si="2"/>
+        <v>2254</v>
+      </c>
+      <c r="U39" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="75">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="46"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="46"/>
+      <c r="T40" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="75">
+        <v>36</v>
+      </c>
+      <c r="B41" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="97">
+        <f>8+4212+93+3564+8424+4968+10800+1738</f>
+        <v>33807</v>
+      </c>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97">
+        <v>2</v>
+      </c>
+      <c r="G41" s="97">
+        <v>6</v>
+      </c>
+      <c r="H41" s="97">
+        <v>3</v>
+      </c>
+      <c r="I41" s="97">
+        <v>3</v>
+      </c>
+      <c r="J41" s="113">
+        <v>64</v>
+      </c>
+      <c r="K41" s="98">
+        <v>4</v>
+      </c>
+      <c r="L41" s="102"/>
+      <c r="M41" s="103">
+        <v>663</v>
+      </c>
+      <c r="N41" s="120"/>
+      <c r="O41" s="97">
+        <v>274</v>
+      </c>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="113">
+        <v>509</v>
+      </c>
+      <c r="R41" s="98"/>
+      <c r="S41" s="102"/>
+      <c r="T41" s="91">
+        <f t="shared" si="2"/>
+        <v>35253</v>
+      </c>
+      <c r="U41" s="91">
+        <f>F41+G41+I41+N41+K41+P41+R41</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="75">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B42" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="46"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="121"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="46"/>
+      <c r="T42" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="75">
+        <v>37</v>
+      </c>
+      <c r="B43" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="46"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="121"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="111"/>
+      <c r="Q43" s="111"/>
+      <c r="R43" s="46"/>
+      <c r="T43" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="75">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B44" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="47">
+        <v>2</v>
+      </c>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="46"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="121"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="111"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="46"/>
+      <c r="T44" s="91">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U44" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="75">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="47">
+        <f>42268+102+11</f>
+        <v>42381</v>
+      </c>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47">
+        <v>3</v>
+      </c>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="111">
+        <v>1</v>
+      </c>
+      <c r="K45" s="46"/>
+      <c r="M45" s="52">
+        <v>5</v>
+      </c>
+      <c r="N45" s="121"/>
+      <c r="O45" s="47">
+        <v>1</v>
+      </c>
+      <c r="P45" s="111">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="111">
+        <v>14</v>
+      </c>
+      <c r="R45" s="46"/>
+      <c r="T45" s="91">
+        <f t="shared" si="2"/>
+        <v>42401</v>
+      </c>
+      <c r="U45" s="91">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="75">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B46" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="46"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="121"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="111"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="46"/>
+      <c r="T46" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="75">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B47" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="46"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="121"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="111"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="46"/>
+      <c r="T47" s="91">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U47" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="75">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B48" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="111"/>
+      <c r="K48" s="46"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="121"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="111"/>
+      <c r="Q48" s="111"/>
+      <c r="R48" s="46"/>
+      <c r="T48" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="75">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B49" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="47">
+        <v>34</v>
+      </c>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="46"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="121"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="111"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="46"/>
+      <c r="T49" s="91">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="U49" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="75">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B50" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="46"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="121"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="46"/>
+      <c r="T50" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" s="63" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="49">
+        <f>SUM(C7:C50)</f>
+        <v>90695</v>
+      </c>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49">
+        <f t="shared" ref="F51:K51" si="4">SUM(F7:F50)</f>
+        <v>70</v>
+      </c>
+      <c r="G51" s="49">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H51" s="49">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I51" s="54">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J51" s="54">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="K51" s="54">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="M51" s="53">
+        <f t="shared" ref="M51:R51" si="5">SUM(M7:M50)</f>
+        <v>706</v>
+      </c>
+      <c r="N51" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="53">
+        <f t="shared" si="5"/>
+        <v>348</v>
+      </c>
+      <c r="P51" s="53">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="Q51" s="53">
+        <f t="shared" si="5"/>
+        <v>650</v>
+      </c>
+      <c r="R51" s="53">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="S51" s="57"/>
+      <c r="T51" s="51">
+        <f>SUM(T7:T50)</f>
+        <v>92400</v>
+      </c>
+      <c r="U51" s="51">
+        <f>SUM(U7:U50)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="130" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="131"/>
+      <c r="J53" s="131"/>
+      <c r="K53" s="132"/>
+      <c r="T53" s="72" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B54" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="114"/>
+      <c r="K54" s="68"/>
+      <c r="T54" s="55"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B55" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="109"/>
+      <c r="K55" s="69"/>
+      <c r="T55" s="50"/>
+    </row>
+    <row r="56" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="115"/>
+      <c r="K56" s="71"/>
+      <c r="T56" s="56"/>
+    </row>
+    <row r="57" spans="1:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B58" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="114"/>
+      <c r="K58" s="68"/>
+      <c r="T58" s="55"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B59" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="69"/>
+      <c r="T59" s="50"/>
+    </row>
+    <row r="60" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="115"/>
+      <c r="K60" s="71"/>
+      <c r="T60" s="56"/>
+    </row>
+    <row r="61" spans="1:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B62" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="68"/>
+      <c r="T62" s="55"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B63" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="109"/>
+      <c r="K63" s="69"/>
+      <c r="T63" s="50"/>
+    </row>
+    <row r="64" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="115"/>
+      <c r="K64" s="71"/>
+      <c r="T64" s="56"/>
+    </row>
+    <row r="65" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="114"/>
+      <c r="K66" s="68"/>
+      <c r="T66" s="55"/>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="109"/>
+      <c r="K67" s="69"/>
+      <c r="T67" s="50"/>
+    </row>
+    <row r="68" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="70"/>
+      <c r="J68" s="115"/>
+      <c r="K68" s="71"/>
+      <c r="T68" s="56"/>
+    </row>
+    <row r="69" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="114"/>
+      <c r="K70" s="68"/>
+      <c r="T70" s="55"/>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B71" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="109"/>
+      <c r="K71" s="69"/>
+      <c r="T71" s="50"/>
+    </row>
+    <row r="72" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="70"/>
+      <c r="J72" s="115"/>
+      <c r="K72" s="71"/>
+      <c r="T72" s="56"/>
+    </row>
+    <row r="73" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="116"/>
+      <c r="K74" s="66"/>
+      <c r="T74" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I1:T1"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C53:K53"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="14" scale="70" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="23" max="80" man="1"/>
+  </colBreaks>
+</worksheet>
 </file>